--- a/model_results/similarity_medoids.xlsx
+++ b/model_results/similarity_medoids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackhorton/Documents/MIT/15.095_Machine_Learning/Project/ML-Project/model_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D651C0C6-8F00-DB45-85F7-04B0244E65AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D340C3-F00B-574C-BDF7-C7C103C028DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="5660" windowWidth="27640" windowHeight="16940" xr2:uid="{F24290AD-4AC6-2E48-98CA-52893B35FA0C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F24290AD-4AC6-2E48-98CA-52893B35FA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:K325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
